--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -546,40 +546,40 @@
         <v>0.962024</v>
       </c>
       <c r="I2">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J2">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2503153333333334</v>
+        <v>0.119639</v>
       </c>
       <c r="N2">
-        <v>0.7509460000000001</v>
+        <v>0.358917</v>
       </c>
       <c r="O2">
-        <v>0.09055430212100421</v>
+        <v>0.02933906125009379</v>
       </c>
       <c r="P2">
-        <v>0.09435844210674454</v>
+        <v>0.03107835843382883</v>
       </c>
       <c r="Q2">
-        <v>0.08026978607822224</v>
+        <v>0.03836519644533333</v>
       </c>
       <c r="R2">
-        <v>0.7224280747040001</v>
+        <v>0.345286768008</v>
       </c>
       <c r="S2">
-        <v>0.02846565159653335</v>
+        <v>0.003842532564332602</v>
       </c>
       <c r="T2">
-        <v>0.03844901456224025</v>
+        <v>0.005730247269710265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.962024</v>
       </c>
       <c r="I3">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J3">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>0.64308</v>
       </c>
       <c r="O3">
-        <v>0.07754706810872602</v>
+        <v>0.05256748359289284</v>
       </c>
       <c r="P3">
-        <v>0.08080478083644532</v>
+        <v>0.05568382311683939</v>
       </c>
       <c r="Q3">
         <v>0.06873982154666666</v>
@@ -638,10 +638,10 @@
         <v>0.61865839392</v>
       </c>
       <c r="S3">
-        <v>0.02437684098283853</v>
+        <v>0.006884755643981784</v>
       </c>
       <c r="T3">
-        <v>0.03292619214255813</v>
+        <v>0.01026701831957048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.962024</v>
       </c>
       <c r="I4">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J4">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8543153333333334</v>
+        <v>1.018537666666667</v>
       </c>
       <c r="N4">
-        <v>2.562946</v>
+        <v>3.055613</v>
       </c>
       <c r="O4">
-        <v>0.3090578901862707</v>
+        <v>0.2497759007335481</v>
       </c>
       <c r="P4">
-        <v>0.3220412543161725</v>
+        <v>0.2645832770503125</v>
       </c>
       <c r="Q4">
-        <v>0.2739572847448889</v>
+        <v>0.3266192267457778</v>
       </c>
       <c r="R4">
-        <v>2.465615562704</v>
+        <v>2.939573040712</v>
       </c>
       <c r="S4">
-        <v>0.09715202943584325</v>
+        <v>0.03271311321697785</v>
       </c>
       <c r="T4">
-        <v>0.1312248125380991</v>
+        <v>0.04878403098917353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.962024</v>
       </c>
       <c r="I5">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J5">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.33433</v>
+        <v>0.684642</v>
       </c>
       <c r="N5">
-        <v>0.66866</v>
+        <v>1.369284</v>
       </c>
       <c r="O5">
-        <v>0.1209475241686433</v>
+        <v>0.1678946963146358</v>
       </c>
       <c r="P5">
-        <v>0.08401897859379476</v>
+        <v>0.1185652921140734</v>
       </c>
       <c r="Q5">
-        <v>0.1072111613066667</v>
+        <v>0.219547345136</v>
       </c>
       <c r="R5">
-        <v>0.64326696784</v>
+        <v>1.317284070816</v>
       </c>
       <c r="S5">
-        <v>0.03801972964075576</v>
+        <v>0.02198914384030125</v>
       </c>
       <c r="T5">
-        <v>0.03423590787778025</v>
+        <v>0.02186114311235732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.962024</v>
       </c>
       <c r="I6">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J6">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.110936</v>
+        <v>2.040627333333334</v>
       </c>
       <c r="N6">
-        <v>3.332808</v>
+        <v>6.121882</v>
       </c>
       <c r="O6">
-        <v>0.4018932154153557</v>
+        <v>0.5004228581088294</v>
       </c>
       <c r="P6">
-        <v>0.4187765441468428</v>
+        <v>0.5300892492849458</v>
       </c>
       <c r="Q6">
-        <v>0.356249031488</v>
+        <v>0.6543774899075556</v>
       </c>
       <c r="R6">
-        <v>3.206241283392</v>
+        <v>5.889397409168001</v>
       </c>
       <c r="S6">
-        <v>0.1263347182968403</v>
+        <v>0.06554030859502782</v>
       </c>
       <c r="T6">
-        <v>0.1706423408942198</v>
+        <v>0.09773818909661125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H7">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I7">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J7">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2503153333333334</v>
+        <v>0.119639</v>
       </c>
       <c r="N7">
-        <v>0.7509460000000001</v>
+        <v>0.358917</v>
       </c>
       <c r="O7">
-        <v>0.09055430212100421</v>
+        <v>0.02933906125009379</v>
       </c>
       <c r="P7">
-        <v>0.09435844210674454</v>
+        <v>0.03107835843382883</v>
       </c>
       <c r="Q7">
-        <v>0.175082684427</v>
+        <v>0.254566308893</v>
       </c>
       <c r="R7">
-        <v>1.050496106562</v>
+        <v>1.527397853358</v>
       </c>
       <c r="S7">
-        <v>0.06208865052447086</v>
+        <v>0.02549652868576119</v>
       </c>
       <c r="T7">
-        <v>0.05590942754450429</v>
+        <v>0.02534811116411856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H8">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I8">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J8">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>0.64308</v>
       </c>
       <c r="O8">
-        <v>0.07754706810872602</v>
+        <v>0.05256748359289284</v>
       </c>
       <c r="P8">
-        <v>0.08080478083644532</v>
+        <v>0.05568382311683939</v>
       </c>
       <c r="Q8">
-        <v>0.14993378046</v>
+        <v>0.45611242132</v>
       </c>
       <c r="R8">
-        <v>0.8996026827599999</v>
+        <v>2.73667452792</v>
       </c>
       <c r="S8">
-        <v>0.0531702271258875</v>
+        <v>0.04568272794891105</v>
       </c>
       <c r="T8">
-        <v>0.04787858869388719</v>
+        <v>0.04541680479726891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H9">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I9">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J9">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8543153333333334</v>
+        <v>1.018537666666667</v>
       </c>
       <c r="N9">
-        <v>2.562946</v>
+        <v>3.055613</v>
       </c>
       <c r="O9">
-        <v>0.3090578901862707</v>
+        <v>0.2497759007335481</v>
       </c>
       <c r="P9">
-        <v>0.3220412543161725</v>
+        <v>0.2645832770503125</v>
       </c>
       <c r="Q9">
-        <v>0.597549578427</v>
+        <v>2.167231206143667</v>
       </c>
       <c r="R9">
-        <v>3.585297470562</v>
+        <v>13.003387236862</v>
       </c>
       <c r="S9">
-        <v>0.2119058607504275</v>
+        <v>0.2170627875165702</v>
       </c>
       <c r="T9">
-        <v>0.1908164417780734</v>
+        <v>0.215799246061139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H10">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I10">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J10">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.33433</v>
+        <v>0.684642</v>
       </c>
       <c r="N10">
-        <v>0.66866</v>
+        <v>1.369284</v>
       </c>
       <c r="O10">
-        <v>0.1209475241686433</v>
+        <v>0.1678946963146358</v>
       </c>
       <c r="P10">
-        <v>0.08401897859379476</v>
+        <v>0.1185652921140734</v>
       </c>
       <c r="Q10">
-        <v>0.233846617005</v>
+        <v>1.456772347254</v>
       </c>
       <c r="R10">
-        <v>0.9353864680199999</v>
+        <v>5.827089389016</v>
       </c>
       <c r="S10">
-        <v>0.08292779452788752</v>
+        <v>0.1459055524743346</v>
       </c>
       <c r="T10">
-        <v>0.04978307071601451</v>
+        <v>0.09670414900171606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H11">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I11">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J11">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.110936</v>
+        <v>2.040627333333334</v>
       </c>
       <c r="N11">
-        <v>3.332808</v>
+        <v>6.121882</v>
       </c>
       <c r="O11">
-        <v>0.4018932154153557</v>
+        <v>0.5004228581088294</v>
       </c>
       <c r="P11">
-        <v>0.4187765441468428</v>
+        <v>0.5300892492849458</v>
       </c>
       <c r="Q11">
-        <v>0.7770425187959998</v>
+        <v>4.342020311711334</v>
       </c>
       <c r="R11">
-        <v>4.662255112775999</v>
+        <v>26.052121870268</v>
       </c>
       <c r="S11">
-        <v>0.2755584971185154</v>
+        <v>0.4348825495138016</v>
       </c>
       <c r="T11">
-        <v>0.248134203252623</v>
+        <v>0.4323510601883346</v>
       </c>
     </row>
   </sheetData>
